--- a/biology/Zoologie/Elasmobranchii/Elasmobranchii.xlsx
+++ b/biology/Zoologie/Elasmobranchii/Elasmobranchii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Elasmobranchii (du grec elasmós/élasma = métal battu, lamelle, et brankhia = branchies) sont une sous-classe de Chondrichthyes qui regroupe les requins et raies.
 </t>
@@ -511,7 +523,9 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des poissons cartilagineux sans réelles arêtes. Ils possèdent 4 à 7 paires de fentes branchiales, et la bouche est généralement en position ventrale, située sous un nez plus ou moins proéminent pouvant contenir des organes sensoriels particuliers (ce caractère a régressé chez certains genres, notamment planctonivores). Ils ont des écailles placoïdes (en forme de dents). Nombreux ont un mode de vie prédateur, néanmoins comme le requin baleine il existe des exceptions. Leur reproduction est sexuée (gonochorique), et nécessite un accouplement et une fécondation interne, même si de rares cas de parthénogenèse ont pu être documentés.
 Elasmobranchii est le nouveau nom pour « Sélacien ».
@@ -543,9 +557,11 @@
           <t>Toxicologie, écotoxicologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En tant que prédateurs, ces espèces sont susceptibles de bioaccumuler certains polluants, dont l'arsenic[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En tant que prédateurs, ces espèces sont susceptibles de bioaccumuler certains polluants, dont l'arsenic.
 </t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Liste des ordres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Selon World Register of Marine Species                               (11 mars 2016)[2] :
+Selon World Register of Marine Species                               (11 mars 2016) :
 sous-classe Neoselachii
 infra-classe Batoidea (raies)
 ordre Myliobatiformes (Raie pastenague, Raie manta...)
@@ -601,17 +619,17 @@
 ordre Heterodontiformes
 ordre Hexanchiformes Compagno, 1973
 ordre Lamniformes
-ordre Myliobatiformes[3]
+ordre Myliobatiformes
 ordre Orectolobiformes
 ordre Pristiformes
 ordre Pristiophoriformes
 ordre Rajiformes
-ordre Rhiniformes[3]
-ordre Rhinobatiformes[3]
+ordre Rhiniformes
+ordre Rhinobatiformes
 ordre Squaliformes Compagno, 1973
 ordre Squatiniformes
 ordre Torpediniformes
-Pour d'autres auteurs[4] :
+Pour d'autres auteurs :
 super-ordre Selachimorpha (requins)
 ordre Carcharhiniformes
 ordre Heterodontiformes
@@ -622,11 +640,11 @@
 ordre Squaliformes
 ordre Squatiniformes
 super-ordre Rajomorphii (raies)
-ordre Myliobatiformes[3]
+ordre Myliobatiformes
 ordre Pristiformes
 ordre Rajiformes
-ordre Rhiniformes[3]
-ordre Rhinobatiformes[3]
+ordre Rhiniformes
+ordre Rhinobatiformes
 ordre Torpediniformes
 			Myliobatiformes
 			Pristiformes
